--- a/2.1-402/attation.xlsx
+++ b/2.1-402/attation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="90" windowWidth="18180" windowHeight="9900"/>
